--- a/Recycling/Met_rec/metrec_Max_full_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full_Avg.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1917,7 +1917,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>70203.84636846723</v>
+        <v>70203.84636846725</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>423365.0088363152</v>
+        <v>423365.0088363153</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4227,7 +4227,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>3719087.365947654</v>
+        <v>3719087.365947655</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4755,7 +4755,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1637548.629444797</v>
+        <v>1637548.629444796</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5349,7 +5349,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1582810.647986261</v>
+        <v>1582810.64798626</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Max_full_Avg.xlsx
+++ b/Recycling/Met_rec/metrec_Max_full_Avg.xlsx
@@ -832,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>0.9449203010574795</v>
+        <v>0.9449203010574793</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>13.76952778170529</v>
+        <v>13.7695277817053</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2668,7 +2668,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>27.14940756821649</v>
+        <v>27.1494075682165</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2828,7 +2828,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>93.29798547722824</v>
+        <v>93.29798547722821</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2872,7 +2872,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>41.7749146668682</v>
+        <v>41.77491466686819</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3032,7 +3032,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>157.9022001058698</v>
+        <v>157.9022001058697</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3688,7 +3688,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>137.6731476824606</v>
+        <v>137.6731476824605</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4620,7 +4620,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>323.3096940727019</v>
+        <v>323.309694072702</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5028,7 +5028,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>742.689833475929</v>
+        <v>742.6898334759292</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5320,7 +5320,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3102.240008205237</v>
+        <v>3102.240008205238</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5640,7 +5640,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1674.27173958408</v>
+        <v>1674.271739584081</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>19094.21290485081</v>
+        <v>19094.2129048508</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6092,7 +6092,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>53713.04876018678</v>
+        <v>53713.04876018679</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6384,7 +6384,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>16125.73005285677</v>
+        <v>16125.73005285678</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>23383.11169579581</v>
+        <v>23383.1116957958</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6996,7 +6996,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>31509.47495080264</v>
+        <v>31509.47495080263</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -9108,7 +9108,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>403751.723896315</v>
+        <v>403751.7238963151</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9764,7 +9764,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>377579.2223361892</v>
+        <v>377579.2223361891</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10420,7 +10420,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>911241.2473717893</v>
+        <v>911241.2473717897</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10580,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>524128.2819734044</v>
+        <v>524128.2819734043</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10944,7 +10944,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1613481.762669912</v>
+        <v>1613481.762669911</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -10988,7 +10988,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>786135.0054415152</v>
+        <v>786135.0054415154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -11236,7 +11236,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>2028898.743223995</v>
+        <v>2028898.743223996</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -11760,7 +11760,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3086493.200839627</v>
+        <v>3086493.200839628</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12372,7 +12372,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3571497.453825414</v>
+        <v>3571497.453825415</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -12868,7 +12868,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>4848700.393288174</v>
+        <v>4848700.393288173</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14092,7 +14092,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>6582988.374010249</v>
+        <v>6582988.37401025</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -14208,7 +14208,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3859457.179654908</v>
+        <v>3859457.179654909</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15724,7 +15724,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7664499.722603714</v>
+        <v>7664499.722603712</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -16044,7 +16044,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3362928.224001331</v>
+        <v>3362928.224001332</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16452,7 +16452,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>3011442.041041401</v>
+        <v>3011442.041041402</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16992,7 +16992,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1104624.901139969</v>
+        <v>1104624.90113997</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -17064,7 +17064,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2748428.255397188</v>
+        <v>2748428.255397187</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -17560,7 +17560,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7284254.060937527</v>
+        <v>7284254.060937528</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18172,7 +18172,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7489064.048721178</v>
+        <v>7489064.048721176</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18580,7 +18580,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>7858374.926328279</v>
+        <v>7858374.926328278</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -18784,7 +18784,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>8064723.951558516</v>
+        <v>8064723.951558518</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19236,7 +19236,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1715253.914842938</v>
+        <v>1715253.914842939</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20328,7 +20328,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2636594.299451382</v>
+        <v>2636594.299451381</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20460,7 +20460,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1555776.742595019</v>
+        <v>1555776.742595018</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20576,7 +20576,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2141250.305168193</v>
+        <v>2141250.305168192</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20984,7 +20984,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>1992055.486306049</v>
+        <v>1992055.48630605</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -21072,7 +21072,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1343490.209731808</v>
+        <v>1343490.209731809</v>
       </c>
     </row>
     <row r="17" spans="1:4">
